--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H2">
         <v>0.109032</v>
       </c>
       <c r="I2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N2">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O2">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P2">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q2">
-        <v>8.469057595562665</v>
+        <v>9.701086449618666</v>
       </c>
       <c r="R2">
-        <v>76.221518360064</v>
+        <v>87.309778046568</v>
       </c>
       <c r="S2">
-        <v>0.006234030171530646</v>
+        <v>0.007648016179825917</v>
       </c>
       <c r="T2">
-        <v>0.006234030171530646</v>
+        <v>0.007648016179825919</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H3">
         <v>0.109032</v>
       </c>
       <c r="I3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.120125</v>
       </c>
       <c r="O3">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P3">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q3">
-        <v>1.879228607666666</v>
+        <v>1.879228607666667</v>
       </c>
       <c r="R3">
         <v>16.913057469</v>
       </c>
       <c r="S3">
-        <v>0.001383290609044346</v>
+        <v>0.001481521773016604</v>
       </c>
       <c r="T3">
-        <v>0.001383290609044346</v>
+        <v>0.001481521773016604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H4">
         <v>0.109032</v>
       </c>
       <c r="I4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N4">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O4">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P4">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q4">
-        <v>0.3186839025626667</v>
+        <v>0.2809350615866666</v>
       </c>
       <c r="R4">
-        <v>2.868155123064</v>
+        <v>2.52841555428</v>
       </c>
       <c r="S4">
-        <v>0.0002345815979333655</v>
+        <v>0.0002214799247129351</v>
       </c>
       <c r="T4">
-        <v>0.0002345815979333655</v>
+        <v>0.0002214799247129351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H5">
         <v>0.109032</v>
       </c>
       <c r="I5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N5">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O5">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P5">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q5">
-        <v>0.1444631598666666</v>
+        <v>0.13273319444</v>
       </c>
       <c r="R5">
-        <v>1.3001684388</v>
+        <v>1.19459874996</v>
       </c>
       <c r="S5">
-        <v>0.0001063385963693664</v>
+        <v>0.0001046424670009</v>
       </c>
       <c r="T5">
-        <v>0.0001063385963693664</v>
+        <v>0.0001046424670009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H6">
         <v>0.109032</v>
       </c>
       <c r="I6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N6">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O6">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P6">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q6">
-        <v>0.2457475155519999</v>
+        <v>0.3265210984933333</v>
       </c>
       <c r="R6">
-        <v>2.211727639968</v>
+        <v>2.93868988644</v>
       </c>
       <c r="S6">
-        <v>0.000180893494847945</v>
+        <v>0.0002574184507375158</v>
       </c>
       <c r="T6">
-        <v>0.000180893494847945</v>
+        <v>0.0002574184507375159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I7">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J7">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N7">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O7">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P7">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q7">
-        <v>752.9706967551643</v>
+        <v>862.5084598643761</v>
       </c>
       <c r="R7">
-        <v>6776.736270796479</v>
+        <v>7762.576138779384</v>
       </c>
       <c r="S7">
-        <v>0.5542578957438634</v>
+        <v>0.6799731855331294</v>
       </c>
       <c r="T7">
-        <v>0.5542578957438635</v>
+        <v>0.6799731855331294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I8">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J8">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.120125</v>
       </c>
       <c r="O8">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P8">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q8">
         <v>167.0792833925694</v>
@@ -948,10 +948,10 @@
         <v>1503.713550533125</v>
       </c>
       <c r="S8">
-        <v>0.1229862097351573</v>
+        <v>0.1317197892562147</v>
       </c>
       <c r="T8">
-        <v>0.1229862097351573</v>
+        <v>0.1317197892562147</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I9">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J9">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N9">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O9">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P9">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q9">
-        <v>28.33368854203945</v>
+        <v>24.97749798946944</v>
       </c>
       <c r="R9">
-        <v>255.003196878355</v>
+        <v>224.7974819052249</v>
       </c>
       <c r="S9">
-        <v>0.02085628386024584</v>
+        <v>0.01969143453644211</v>
       </c>
       <c r="T9">
-        <v>0.02085628386024584</v>
+        <v>0.01969143453644212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I10">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J10">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N10">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O10">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P10">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q10">
-        <v>12.84399414136111</v>
+        <v>11.80110121725833</v>
       </c>
       <c r="R10">
-        <v>115.59594727225</v>
+        <v>106.209910955325</v>
       </c>
       <c r="S10">
-        <v>0.009454398685653091</v>
+        <v>0.009303598469932492</v>
       </c>
       <c r="T10">
-        <v>0.009454398685653094</v>
+        <v>0.009303598469932494</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I11">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J11">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N11">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O11">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P11">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q11">
-        <v>21.84902817380666</v>
+        <v>29.03048140404722</v>
       </c>
       <c r="R11">
-        <v>196.64125356426</v>
+        <v>261.274332636425</v>
       </c>
       <c r="S11">
-        <v>0.01608295838317351</v>
+        <v>0.02288667281127219</v>
       </c>
       <c r="T11">
-        <v>0.01608295838317351</v>
+        <v>0.02288667281127219</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H12">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N12">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O12">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P12">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q12">
-        <v>125.3536570552107</v>
+        <v>54.47340837994611</v>
       </c>
       <c r="R12">
-        <v>1128.182913496896</v>
+        <v>490.2606754195149</v>
       </c>
       <c r="S12">
-        <v>0.09227218865571668</v>
+        <v>0.04294503618988664</v>
       </c>
       <c r="T12">
-        <v>0.09227218865571671</v>
+        <v>0.04294503618988665</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H13">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.120125</v>
       </c>
       <c r="O13">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P13">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q13">
-        <v>27.81515838754166</v>
+        <v>10.55221885881944</v>
       </c>
       <c r="R13">
-        <v>250.336425487875</v>
+        <v>94.96996972937499</v>
       </c>
       <c r="S13">
-        <v>0.02047459645388302</v>
+        <v>0.008319020862708384</v>
       </c>
       <c r="T13">
-        <v>0.02047459645388303</v>
+        <v>0.008319020862708386</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H14">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N14">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O14">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P14">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q14">
-        <v>4.716958431335668</v>
+        <v>1.577502727919444</v>
       </c>
       <c r="R14">
-        <v>42.452625882021</v>
+        <v>14.197524551275</v>
       </c>
       <c r="S14">
-        <v>0.003472129082486038</v>
+        <v>0.001243651053879813</v>
       </c>
       <c r="T14">
-        <v>0.003472129082486039</v>
+        <v>0.001243651053879814</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H15">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N15">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O15">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P15">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q15">
-        <v>2.138252715216666</v>
+        <v>0.7453216239083333</v>
       </c>
       <c r="R15">
-        <v>19.24427443695</v>
+        <v>6.707894615174999</v>
       </c>
       <c r="S15">
-        <v>0.001573956935657421</v>
+        <v>0.0005875869541446182</v>
       </c>
       <c r="T15">
-        <v>0.001573956935657422</v>
+        <v>0.0005875869541446183</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H16">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N16">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O16">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P16">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q16">
-        <v>3.637399963228</v>
+        <v>1.833476820897222</v>
       </c>
       <c r="R16">
-        <v>32.736599669052</v>
+        <v>16.501291388075</v>
       </c>
       <c r="S16">
-        <v>0.002677471591239225</v>
+        <v>0.001445452575274076</v>
       </c>
       <c r="T16">
-        <v>0.002677471591239225</v>
+        <v>0.001445452575274076</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H17">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I17">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J17">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N17">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O17">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P17">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q17">
-        <v>36.67260706522311</v>
+        <v>39.06210542358055</v>
       </c>
       <c r="R17">
-        <v>330.053463587008</v>
+        <v>351.558948812225</v>
       </c>
       <c r="S17">
-        <v>0.02699451932326833</v>
+        <v>0.03079527389526078</v>
       </c>
       <c r="T17">
-        <v>0.02699451932326834</v>
+        <v>0.03079527389526078</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H18">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I18">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J18">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.120125</v>
       </c>
       <c r="O18">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P18">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q18">
-        <v>8.137412166236111</v>
+        <v>7.566845875347222</v>
       </c>
       <c r="R18">
-        <v>73.236709496125</v>
+        <v>68.101612878125</v>
       </c>
       <c r="S18">
-        <v>0.005989907659746663</v>
+        <v>0.005965451394073434</v>
       </c>
       <c r="T18">
-        <v>0.005989907659746664</v>
+        <v>0.005965451394073435</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H19">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I19">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J19">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N19">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O19">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P19">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q19">
-        <v>1.379961041098111</v>
+        <v>1.131204741847222</v>
       </c>
       <c r="R19">
-        <v>12.419649369883</v>
+        <v>10.180842676625</v>
       </c>
       <c r="S19">
-        <v>0.001015782295570859</v>
+        <v>0.0008918044605904352</v>
       </c>
       <c r="T19">
-        <v>0.001015782295570859</v>
+        <v>0.0008918044605904354</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H20">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I20">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J20">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N20">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O20">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P20">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q20">
-        <v>0.6255525644277777</v>
+        <v>0.5344595227916666</v>
       </c>
       <c r="R20">
-        <v>5.62997307985</v>
+        <v>4.810135705125</v>
       </c>
       <c r="S20">
-        <v>0.0004604660573526358</v>
+        <v>0.0004213502373162936</v>
       </c>
       <c r="T20">
-        <v>0.000460466057352636</v>
+        <v>0.0004213502373162937</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H21">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I21">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J21">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N21">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O21">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P21">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q21">
-        <v>1.064132812110667</v>
+        <v>1.314760118736111</v>
       </c>
       <c r="R21">
-        <v>9.577195308996</v>
+        <v>11.832841068625</v>
       </c>
       <c r="S21">
-        <v>0.0007833027444150839</v>
+        <v>0.001036513457838414</v>
       </c>
       <c r="T21">
-        <v>0.000783302744415084</v>
+        <v>0.001036513457838414</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H22">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N22">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O22">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P22">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q22">
-        <v>117.0693882190933</v>
+        <v>33.02028031387556</v>
       </c>
       <c r="R22">
-        <v>1053.62449397184</v>
+        <v>297.18252282488</v>
       </c>
       <c r="S22">
-        <v>0.08617418054906673</v>
+        <v>0.02603209850921743</v>
       </c>
       <c r="T22">
-        <v>0.08617418054906674</v>
+        <v>0.02603209850921743</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H23">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>155.120125</v>
       </c>
       <c r="O23">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P23">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q23">
-        <v>25.97693319958333</v>
+        <v>6.396464532222223</v>
       </c>
       <c r="R23">
-        <v>233.79239879625</v>
+        <v>57.56818079</v>
       </c>
       <c r="S23">
-        <v>0.01912148825329598</v>
+        <v>0.005042761394837498</v>
       </c>
       <c r="T23">
-        <v>0.01912148825329598</v>
+        <v>0.005042761394837499</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H24">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N24">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O24">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P24">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q24">
-        <v>4.405227982843334</v>
+        <v>0.9562387194222222</v>
       </c>
       <c r="R24">
-        <v>39.64705184559</v>
+        <v>8.606148474799999</v>
       </c>
       <c r="S24">
-        <v>0.003242665886686757</v>
+        <v>0.0007538670267395303</v>
       </c>
       <c r="T24">
-        <v>0.003242665886686757</v>
+        <v>0.0007538670267395306</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H25">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N25">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O25">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P25">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q25">
-        <v>1.996941637833333</v>
+        <v>0.4517934470666667</v>
       </c>
       <c r="R25">
-        <v>17.9724747405</v>
+        <v>4.0661410236</v>
       </c>
       <c r="S25">
-        <v>0.001469938571153587</v>
+        <v>0.0003561790332505503</v>
       </c>
       <c r="T25">
-        <v>0.001469938571153588</v>
+        <v>0.0003561790332505505</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H26">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N26">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O26">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P26">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q26">
-        <v>3.39701448212</v>
+        <v>1.111403166711111</v>
       </c>
       <c r="R26">
-        <v>30.57313033908</v>
+        <v>10.0026285004</v>
       </c>
       <c r="S26">
-        <v>0.002500525062641951</v>
+        <v>0.0008761935526974364</v>
       </c>
       <c r="T26">
-        <v>0.002500525062641951</v>
+        <v>0.0008761935526974367</v>
       </c>
     </row>
   </sheetData>
